--- a/ФСУ/9309.xlsx
+++ b/ФСУ/9309.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даниил\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даниил\Desktop\bot\ФСУ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8331D9B-F9C7-4EE3-AB8D-4F730E500A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9118B2-B5E0-433B-90E8-9E7D51A56FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="123">
   <si>
     <t>Предмет</t>
   </si>
@@ -590,26 +590,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,15 +990,15 @@
       <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1025,13 +1025,13 @@
       <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -1058,13 +1058,13 @@
       <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1091,18 +1091,18 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="21" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="26" t="s">
+      <c r="M5" s="22"/>
+      <c r="N5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="26"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1130,18 +1130,18 @@
       <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21" t="s">
+      <c r="K6" s="24"/>
+      <c r="L6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="21"/>
+      <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -1168,18 +1168,18 @@
       <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="21"/>
+      <c r="O7" s="22"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1206,16 +1206,16 @@
       <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="21" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="21"/>
+      <c r="O8" s="22"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1242,16 +1242,16 @@
       <c r="H9" s="6">
         <v>1</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="21" t="s">
+      <c r="K9" s="24"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="21"/>
+      <c r="O9" s="22"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1278,16 +1278,16 @@
       <c r="H10" s="6">
         <v>0</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="21" t="s">
+      <c r="K10" s="24"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="21"/>
+      <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1314,15 +1314,15 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="21"/>
+      <c r="O11" s="22"/>
     </row>
     <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1349,15 +1349,15 @@
       <c r="H12" s="6">
         <v>1</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1384,13 +1384,13 @@
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
     </row>
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1417,13 +1417,13 @@
       <c r="H14" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -1735,13 +1735,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J2:P4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="J12:P14"/>
@@ -1754,6 +1747,13 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="J2:P4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1830,15 +1830,15 @@
       <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1865,13 +1865,13 @@
       <c r="H3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -1898,13 +1898,13 @@
       <c r="H4" s="6">
         <v>0</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1931,18 +1931,18 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="21" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="26" t="s">
+      <c r="M5" s="22"/>
+      <c r="N5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="26"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -1970,18 +1970,18 @@
       <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21" t="s">
+      <c r="K6" s="24"/>
+      <c r="L6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="21"/>
+      <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -2008,18 +2008,18 @@
       <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="21"/>
+      <c r="O7" s="22"/>
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -2046,16 +2046,16 @@
       <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="21" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="21"/>
+      <c r="O8" s="22"/>
     </row>
     <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -2082,16 +2082,16 @@
       <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="21" t="s">
+      <c r="K9" s="24"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="21"/>
+      <c r="O9" s="22"/>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -2118,16 +2118,16 @@
       <c r="H10" s="6">
         <v>0</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="21" t="s">
+      <c r="K10" s="24"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="21"/>
+      <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -2154,15 +2154,15 @@
       <c r="H11" s="6">
         <v>1</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="21"/>
+      <c r="O11" s="22"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -2189,15 +2189,15 @@
       <c r="H12" s="6">
         <v>0</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -2224,13 +2224,13 @@
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -2257,13 +2257,13 @@
       <c r="H14" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
@@ -2475,6 +2475,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J2:P4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="J12:P14"/>
@@ -2487,13 +2494,6 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="J2:P4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2556,15 +2556,15 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -2591,13 +2591,13 @@
       <c r="H3" s="17">
         <v>0</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -2624,13 +2624,13 @@
       <c r="H4" s="17">
         <v>1</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
@@ -2657,18 +2657,18 @@
       <c r="H5" s="17">
         <v>5</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="21" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="26" t="s">
+      <c r="M5" s="22"/>
+      <c r="N5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="26"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -2696,18 +2696,18 @@
       <c r="H6" s="17">
         <v>1</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21" t="s">
+      <c r="K6" s="24"/>
+      <c r="L6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="21"/>
+      <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
@@ -2734,18 +2734,18 @@
       <c r="H7" s="17">
         <v>1</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="21"/>
+      <c r="O7" s="22"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
@@ -2772,16 +2772,16 @@
       <c r="H8" s="17">
         <v>0</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="21" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="21"/>
+      <c r="O8" s="22"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
@@ -2808,16 +2808,16 @@
       <c r="H9" s="17">
         <v>1</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="21" t="s">
+      <c r="K9" s="24"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="21"/>
+      <c r="O9" s="22"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -2844,16 +2844,16 @@
       <c r="H10" s="6">
         <v>0</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="21" t="s">
+      <c r="K10" s="24"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="21"/>
+      <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -2880,15 +2880,15 @@
       <c r="H11" s="6">
         <v>1</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="21"/>
+      <c r="O11" s="22"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -2915,15 +2915,15 @@
       <c r="H12" s="6">
         <v>0</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -2950,13 +2950,13 @@
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -2983,13 +2983,13 @@
       <c r="H14" s="6">
         <v>0</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -3353,6 +3353,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J2:P4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="J12:P14"/>
@@ -3365,13 +3372,6 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="J2:P4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3382,7 +3382,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3426,8 +3426,8 @@
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>110</v>
+      <c r="C2" s="15">
+        <v>1</v>
       </c>
       <c r="D2" s="15">
         <v>2</v>
@@ -3441,16 +3441,16 @@
       <c r="G2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="H2" s="15">
+        <v>4</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -3475,13 +3475,13 @@
       <c r="H3" s="14">
         <v>0</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
@@ -3508,13 +3508,13 @@
       <c r="H4" s="14">
         <v>5</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
@@ -3541,12 +3541,12 @@
       <c r="H5" s="14">
         <v>1</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -3574,12 +3574,12 @@
       <c r="H6" s="14">
         <v>0</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -3606,12 +3606,12 @@
       <c r="H7" s="14">
         <v>1</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
     </row>
     <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
@@ -3638,12 +3638,12 @@
       <c r="H8" s="14">
         <v>1</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
     </row>
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
@@ -3668,12 +3668,12 @@
       <c r="H9" s="14">
         <v>1</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
     </row>
     <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
@@ -3700,12 +3700,12 @@
       <c r="H10" s="14">
         <v>0</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
@@ -3732,11 +3732,11 @@
       <c r="H11" s="14">
         <v>1</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="1"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
     </row>
     <row r="12" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
@@ -3763,13 +3763,13 @@
       <c r="H12" s="14">
         <v>1</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
@@ -3796,13 +3796,13 @@
       <c r="H13" s="14">
         <v>5</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
     </row>
     <row r="14" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
@@ -3829,13 +3829,13 @@
       <c r="H14" s="14">
         <v>2</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
@@ -4103,6 +4103,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J2:P4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="J12:P14"/>
@@ -4115,13 +4122,6 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="J2:P4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
